--- a/data/Spreadsheet_Data/Flyer.xlsx
+++ b/data/Spreadsheet_Data/Flyer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C3E059-0524-EB47-A7A3-32ED18D17844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CA69E1-B597-A24F-BA2C-BCEF9BC7CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="7880" windowWidth="27700" windowHeight="16940" xr2:uid="{8E5D07ED-61E9-D845-87C6-232EAF340667}"/>
+    <workbookView xWindow="43740" yWindow="12340" windowWidth="27700" windowHeight="16940" xr2:uid="{8E5D07ED-61E9-D845-87C6-232EAF340667}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>F_009</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Directory</t>
   </si>
 </sst>
 </file>
@@ -138,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +184,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,63 +440,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CDB85-76FC-E84F-9000-7C77D8B9B814}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="D1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>

--- a/data/Spreadsheet_Data/Flyer.xlsx
+++ b/data/Spreadsheet_Data/Flyer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CA69E1-B597-A24F-BA2C-BCEF9BC7CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F09001-5437-7C47-94EC-EC2B9AC71344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="12340" windowWidth="27700" windowHeight="16940" xr2:uid="{8E5D07ED-61E9-D845-87C6-232EAF340667}"/>
+    <workbookView xWindow="44640" yWindow="4240" windowWidth="27700" windowHeight="16940" xr2:uid="{8E5D07ED-61E9-D845-87C6-232EAF340667}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -52,28 +52,31 @@
     <t>F_003</t>
   </si>
   <si>
-    <t>F_004</t>
-  </si>
-  <si>
-    <t>F_005</t>
-  </si>
-  <si>
-    <t>F_006</t>
-  </si>
-  <si>
-    <t>F_007</t>
-  </si>
-  <si>
-    <t>F_008</t>
-  </si>
-  <si>
-    <t>F_009</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
     <t>Directory</t>
+  </si>
+  <si>
+    <t>Atli.pdf</t>
+  </si>
+  <si>
+    <t>Ping.pdf</t>
+  </si>
+  <si>
+    <t>Pong.pdf</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Flyer</t>
+  </si>
+  <si>
+    <t>Flyer from Atli</t>
+  </si>
+  <si>
+    <t>Flyer from Ping</t>
+  </si>
+  <si>
+    <t>Flyer from Pong</t>
   </si>
 </sst>
 </file>
@@ -440,13 +443,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CDB85-76FC-E84F-9000-7C77D8B9B814}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -456,54 +463,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/Spreadsheet_Data/Flyer.xlsx
+++ b/data/Spreadsheet_Data/Flyer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F09001-5437-7C47-94EC-EC2B9AC71344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB37BE6-9322-4241-ADE6-299682F710AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44640" yWindow="4240" windowWidth="27700" windowHeight="16940" xr2:uid="{8E5D07ED-61E9-D845-87C6-232EAF340667}"/>
   </bookViews>
@@ -43,15 +43,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>F_001</t>
-  </si>
-  <si>
-    <t>F_002</t>
-  </si>
-  <si>
-    <t>F_003</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>Pong.pdf</t>
   </si>
   <si>
-    <t>data/Multimedia_Data/Flyer</t>
-  </si>
-  <si>
     <t>Flyer from Atli</t>
   </si>
   <si>
@@ -77,6 +65,18 @@
   </si>
   <si>
     <t>Flyer from Pong</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Flyer/</t>
+  </si>
+  <si>
+    <t>FL_001</t>
+  </si>
+  <si>
+    <t>FL_002</t>
+  </si>
+  <si>
+    <t>FL_003</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -463,21 +463,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>

--- a/data/Spreadsheet_Data/Flyer.xlsx
+++ b/data/Spreadsheet_Data/Flyer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB37BE6-9322-4241-ADE6-299682F710AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922FA837-4B26-2642-A7EB-BD4B7BDCF201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44640" yWindow="4240" windowWidth="27700" windowHeight="16940" xr2:uid="{8E5D07ED-61E9-D845-87C6-232EAF340667}"/>
+    <workbookView xWindow="48640" yWindow="4960" windowWidth="26280" windowHeight="20860" xr2:uid="{8E5D07ED-61E9-D845-87C6-232EAF340667}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -77,6 +77,150 @@
   </si>
   <si>
     <t>FL_003</t>
+  </si>
+  <si>
+    <t>FL_004</t>
+  </si>
+  <si>
+    <t>FL_005</t>
+  </si>
+  <si>
+    <t>FL_006</t>
+  </si>
+  <si>
+    <t>FL_007</t>
+  </si>
+  <si>
+    <t>FL_008</t>
+  </si>
+  <si>
+    <t>FL_009</t>
+  </si>
+  <si>
+    <t>FL_010</t>
+  </si>
+  <si>
+    <t>FL_011</t>
+  </si>
+  <si>
+    <t>FL_012</t>
+  </si>
+  <si>
+    <t>Flyer from Gregor's duck</t>
+  </si>
+  <si>
+    <t>Flyer from Nora's duck</t>
+  </si>
+  <si>
+    <t>Flyer from Florian's duck</t>
+  </si>
+  <si>
+    <t>Flyer from Johannes's duck</t>
+  </si>
+  <si>
+    <t>Flyer from from JulienS's duck</t>
+  </si>
+  <si>
+    <t>Flyer from Christian's duck</t>
+  </si>
+  <si>
+    <t>Flyer from Balduin's duck</t>
+  </si>
+  <si>
+    <t>Flyer from DanielaS's duck</t>
+  </si>
+  <si>
+    <t>Flyer from Ivan's duck</t>
+  </si>
+  <si>
+    <t>Flyer from Rita's duck</t>
+  </si>
+  <si>
+    <t>Flyer from Nicky de Saint</t>
+  </si>
+  <si>
+    <t>Flyer from Anubis</t>
+  </si>
+  <si>
+    <t>Flyer from Kenzi</t>
+  </si>
+  <si>
+    <t>Flyer from Loki</t>
+  </si>
+  <si>
+    <t>Flyer from Ginny</t>
+  </si>
+  <si>
+    <t>Flyer from  Ramon</t>
+  </si>
+  <si>
+    <t>FL_013</t>
+  </si>
+  <si>
+    <t>FL_014</t>
+  </si>
+  <si>
+    <t>FL_015</t>
+  </si>
+  <si>
+    <t>FL_016</t>
+  </si>
+  <si>
+    <t>FL_017</t>
+  </si>
+  <si>
+    <t>FL_018</t>
+  </si>
+  <si>
+    <t>FL_019</t>
+  </si>
+  <si>
+    <t>Gregors_duck.pdf</t>
+  </si>
+  <si>
+    <t>Noras_duck.pdf</t>
+  </si>
+  <si>
+    <t>Florians_duck.pdf</t>
+  </si>
+  <si>
+    <t>Johannes_duck.pdf</t>
+  </si>
+  <si>
+    <t>JulienS_duck.pdf</t>
+  </si>
+  <si>
+    <t>Christians_duck.pdf</t>
+  </si>
+  <si>
+    <t>Balduins_duck.pdf</t>
+  </si>
+  <si>
+    <t>DanielaS_duck.pdf</t>
+  </si>
+  <si>
+    <t>Ivans_duck.pdf</t>
+  </si>
+  <si>
+    <t>Ritas_duck.pdf</t>
+  </si>
+  <si>
+    <t>Nicky de Saint.pdf</t>
+  </si>
+  <si>
+    <t>Anubis.pdf</t>
+  </si>
+  <si>
+    <t>Kenzi.pdf</t>
+  </si>
+  <si>
+    <t>Loki.pdf</t>
+  </si>
+  <si>
+    <t>Ginny.pdf</t>
+  </si>
+  <si>
+    <t>Ramon.pdf</t>
   </si>
 </sst>
 </file>
@@ -147,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,16 +587,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CDB85-76FC-E84F-9000-7C77D8B9B814}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -511,6 +656,230 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
